--- a/parameters_PD.xlsx
+++ b/parameters_PD.xlsx
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/parameters_PD.xlsx
+++ b/parameters_PD.xlsx
@@ -605,506 +605,506 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>3.105594770477554</v>
+        <v>3.105584827844788</v>
       </c>
       <c r="B18">
-        <v>0.2233089003194338</v>
+        <v>0.2233074306056221</v>
       </c>
       <c r="C18">
-        <v>13.90716969200571</v>
+        <v>13.90721669862158</v>
       </c>
       <c r="D18">
-        <v>1.05977714629424E-016</v>
+        <v>1.059660328097733E-016</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-2.528491208787971</v>
+        <v>-2.528489398968694</v>
       </c>
       <c r="B19">
-        <v>0.2021415582073678</v>
+        <v>0.202141066931868</v>
       </c>
       <c r="C19">
-        <v>-12.50851745287383</v>
+        <v>-12.50853889982151</v>
       </c>
       <c r="D19">
-        <v>3.157531604531235E-015</v>
+        <v>3.157361580408546E-015</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.8092423953094348</v>
+        <v>0.7441978695744366</v>
       </c>
       <c r="B20">
-        <v>0.07928222784899303</v>
+        <v>0.08483987010885681</v>
       </c>
       <c r="C20">
-        <v>10.20710967974789</v>
+        <v>8.771794070636448</v>
       </c>
       <c r="D20">
-        <v>1.427381852408365E-012</v>
+        <v>9.127073118126388E-011</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>3.244291502847891</v>
+        <v>3.244338057614363</v>
       </c>
       <c r="B21">
-        <v>0.8122777819559552</v>
+        <v>0.8123001436357823</v>
       </c>
       <c r="C21">
-        <v>3.994066531077184</v>
+        <v>3.994013891334547</v>
       </c>
       <c r="D21">
-        <v>0.0002787580582966978</v>
+        <v>0.00027880191498122</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>3.208850559460313</v>
+        <v>3.208837649472426</v>
       </c>
       <c r="B22">
-        <v>0.2794337515177389</v>
+        <v>0.2794322446727607</v>
       </c>
       <c r="C22">
-        <v>11.48340364051051</v>
+        <v>11.48341936425502</v>
       </c>
       <c r="D22">
-        <v>3.064940972485127E-015</v>
+        <v>3.064794516205422E-015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-2.816264386444098</v>
+        <v>-2.816260907465245</v>
       </c>
       <c r="B23">
-        <v>0.2071071084233848</v>
+        <v>0.2071061222193997</v>
       </c>
       <c r="C23">
-        <v>-13.59810586842276</v>
+        <v>-13.59815382223136</v>
       </c>
       <c r="D23">
-        <v>6.605325630557283E-018</v>
+        <v>6.604448279714897E-018</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.6470326965702153</v>
+        <v>0.5772142760411632</v>
       </c>
       <c r="B24">
-        <v>0.07906418673915</v>
+        <v>0.08174270063141903</v>
       </c>
       <c r="C24">
-        <v>8.183638171159812</v>
+        <v>7.061355589948569</v>
       </c>
       <c r="D24">
-        <v>1.356944073749053E-010</v>
+        <v>6.597601210663108E-009</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2.333492081987579</v>
+        <v>2.333520627665177</v>
       </c>
       <c r="B25">
-        <v>0.4755242336184496</v>
+        <v>0.4755331153659715</v>
       </c>
       <c r="C25">
-        <v>4.907199080541336</v>
+        <v>4.907167455350177</v>
       </c>
       <c r="D25">
-        <v>1.150472054849969E-005</v>
+        <v>1.150594518785094E-005</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>3.462284825760631</v>
+        <v>3.462283029340493</v>
       </c>
       <c r="B26">
-        <v>0.1945632469590466</v>
+        <v>0.1945630438351237</v>
       </c>
       <c r="C26">
-        <v>17.79516368006237</v>
+        <v>17.79517302512237</v>
       </c>
       <c r="D26">
-        <v>8.476426794569828E-017</v>
+        <v>8.476311946812481E-017</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-2.906880811945242</v>
+        <v>-2.906880497426308</v>
       </c>
       <c r="B27">
-        <v>0.1815569747174478</v>
+        <v>0.1815568844725449</v>
       </c>
       <c r="C27">
-        <v>-16.01084627274244</v>
+        <v>-16.01085249877091</v>
       </c>
       <c r="D27">
-        <v>1.264018429782987E-015</v>
+        <v>1.264005977362485E-015</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.9178819801925434</v>
+        <v>0.8368977386863576</v>
       </c>
       <c r="B28">
-        <v>0.07058327802535251</v>
+        <v>0.07385920479146602</v>
       </c>
       <c r="C28">
-        <v>13.00424131425085</v>
+        <v>11.33098766835161</v>
       </c>
       <c r="D28">
-        <v>2.186095191709433E-013</v>
+        <v>5.694479657209916E-012</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2.95975794655557</v>
+        <v>2.959763824390405</v>
       </c>
       <c r="B29">
-        <v>0.4958888691023656</v>
+        <v>0.4958900483751095</v>
       </c>
       <c r="C29">
-        <v>5.968591212610162</v>
+        <v>5.968588871845096</v>
       </c>
       <c r="D29">
-        <v>1.991489043663532E-006</v>
+        <v>1.991501595342979E-006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>3.407918847082848</v>
+        <v>3.407912923787291</v>
       </c>
       <c r="B30">
-        <v>0.4216857531049937</v>
+        <v>0.421683222343438</v>
       </c>
       <c r="C30">
-        <v>8.081655170916635</v>
+        <v>8.08168962674956</v>
       </c>
       <c r="D30">
-        <v>1.322722511848991E-009</v>
+        <v>1.322589789584515E-009</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-2.293445408460787</v>
+        <v>-2.293428650462744</v>
       </c>
       <c r="B31">
-        <v>0.3281529754736224</v>
+        <v>0.3281489800326204</v>
       </c>
       <c r="C31">
-        <v>-6.988952043328763</v>
+        <v>-6.988986070396319</v>
       </c>
       <c r="D31">
-        <v>3.394201521145655E-008</v>
+        <v>3.393852626416747E-008</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.7067452373880095</v>
+        <v>0.6318154388694338</v>
       </c>
       <c r="B32">
-        <v>0.1318542801148381</v>
+        <v>0.1372265599078239</v>
       </c>
       <c r="C32">
-        <v>5.360047749473677</v>
+        <v>4.604177495186273</v>
       </c>
       <c r="D32">
-        <v>4.981292487753599E-006</v>
+        <v>5.002096334055776E-005</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2.602672370314945</v>
+        <v>2.60273589004971</v>
       </c>
       <c r="B33">
-        <v>0.9130171303844253</v>
+        <v>0.913050707013251</v>
       </c>
       <c r="C33">
-        <v>2.850628190534707</v>
+        <v>2.850592929897306</v>
       </c>
       <c r="D33">
-        <v>0.007178194788998386</v>
+        <v>0.007178841879618481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>3.651619793546519</v>
+        <v>3.651615837982772</v>
       </c>
       <c r="B34">
-        <v>0.3431145666846264</v>
+        <v>0.3431137653124534</v>
       </c>
       <c r="C34">
-        <v>10.64256708431416</v>
+        <v>10.6425804125272</v>
       </c>
       <c r="D34">
-        <v>2.391676794132354E-011</v>
+        <v>2.391609006083682E-011</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-2.428983588340358</v>
+        <v>-2.428979723120634</v>
       </c>
       <c r="B35">
-        <v>0.2362976889556468</v>
+        <v>0.2362972912069257</v>
       </c>
       <c r="C35">
-        <v>-10.27933704758441</v>
+        <v>-10.27933799289123</v>
       </c>
       <c r="D35">
-        <v>5.220860516774592E-011</v>
+        <v>5.22084979711037E-011</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.6188395670132254</v>
+        <v>0.5762044745853221</v>
       </c>
       <c r="B36">
-        <v>0.0733286462644147</v>
+        <v>0.07644420757980402</v>
       </c>
       <c r="C36">
-        <v>8.439260760136779</v>
+        <v>7.537581889167897</v>
       </c>
       <c r="D36">
-        <v>3.537598983592605E-009</v>
+        <v>3.282411954797458E-008</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>4.130446337586109</v>
+        <v>4.13049147945389</v>
       </c>
       <c r="B37">
-        <v>1.117614140213992</v>
+        <v>1.117627566877063</v>
       </c>
       <c r="C37">
-        <v>3.695771365952155</v>
+        <v>3.695767357453019</v>
       </c>
       <c r="D37">
-        <v>0.0009440073875716038</v>
+        <v>0.0009440173669151288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>3.400193336531868</v>
+        <v>3.400194330755337</v>
       </c>
       <c r="B38">
-        <v>0.2102793727028115</v>
+        <v>0.2102796988261297</v>
       </c>
       <c r="C38">
-        <v>16.16988529510868</v>
+        <v>16.16986494529268</v>
       </c>
       <c r="D38">
-        <v>9.5013102133662E-015</v>
+        <v>9.501584024574022E-015</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-2.434406431616309</v>
+        <v>-2.434411240410416</v>
       </c>
       <c r="B39">
-        <v>0.2589928117420925</v>
+        <v>0.2589936384194053</v>
       </c>
       <c r="C39">
-        <v>-9.399513504801494</v>
+        <v>-9.399502069885653</v>
       </c>
       <c r="D39">
-        <v>1.102119761760908E-009</v>
+        <v>1.102146157531825E-009</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.228081823133344</v>
+        <v>1.107187019223221</v>
       </c>
       <c r="B40">
-        <v>0.123959262260082</v>
+        <v>0.1291319827744034</v>
       </c>
       <c r="C40">
-        <v>9.907140464878491</v>
+        <v>8.574072785341665</v>
       </c>
       <c r="D40">
-        <v>3.869409946710637E-010</v>
+        <v>6.491687501704844E-009</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2.764626715311883</v>
+        <v>2.764612819707379</v>
       </c>
       <c r="B41">
-        <v>0.5810507621779144</v>
+        <v>0.5810477636773012</v>
       </c>
       <c r="C41">
-        <v>4.757977951787575</v>
+        <v>4.757978590625422</v>
       </c>
       <c r="D41">
-        <v>6.976585942670807E-005</v>
+        <v>6.976574387644904E-005</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2.841201918745838</v>
+        <v>2.841199524247899</v>
       </c>
       <c r="B42">
-        <v>0.4781742118823372</v>
+        <v>0.4781734752450829</v>
       </c>
       <c r="C42">
-        <v>5.941771530424905</v>
+        <v>5.941775676268265</v>
       </c>
       <c r="D42">
-        <v>1.145001096353503E-006</v>
+        <v>1.144987121631382E-006</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-2.697929792568266</v>
+        <v>-2.697926628616004</v>
       </c>
       <c r="B43">
-        <v>0.6192999131049055</v>
+        <v>0.6192976910825196</v>
       </c>
       <c r="C43">
-        <v>-4.356418813369433</v>
+        <v>-4.356429335139428</v>
       </c>
       <c r="D43">
-        <v>0.0001210836316325145</v>
+        <v>0.0001210799462509725</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.125115196460427</v>
+        <v>0.9768832177412866</v>
       </c>
       <c r="B44">
-        <v>0.3315466624018382</v>
+        <v>0.3353346382708696</v>
       </c>
       <c r="C44">
-        <v>3.393534980294191</v>
+        <v>2.91315929299317</v>
       </c>
       <c r="D44">
-        <v>0.001809374157636633</v>
+        <v>0.006375361525335358</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1.794619755646845</v>
+        <v>1.794626177648643</v>
       </c>
       <c r="B45">
-        <v>0.7688352839103411</v>
+        <v>0.7688385325922541</v>
       </c>
       <c r="C45">
-        <v>2.334205769692702</v>
+        <v>2.334204259505298</v>
       </c>
       <c r="D45">
-        <v>0.02582097230445419</v>
+        <v>0.02582106132001847</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>3.175496765489538</v>
+        <v>3.175483200296177</v>
       </c>
       <c r="B46">
-        <v>0.6040847419028683</v>
+        <v>0.6040846312372648</v>
       </c>
       <c r="C46">
-        <v>5.256707453803114</v>
+        <v>5.256685961025469</v>
       </c>
       <c r="D46">
-        <v>5.939272982393274E-006</v>
+        <v>5.939674116797829E-006</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-3.239236035013357</v>
+        <v>-3.239280307980127</v>
       </c>
       <c r="B47">
-        <v>1.251379918101263</v>
+        <v>1.251416050833322</v>
       </c>
       <c r="C47">
-        <v>-2.588531259098594</v>
+        <v>-2.588491897497303</v>
       </c>
       <c r="D47">
-        <v>0.01358276517220107</v>
+        <v>0.01358407998849755</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.4471379903275971</v>
+        <v>0.3408485766451327</v>
       </c>
       <c r="B48">
-        <v>0.1996737882667519</v>
+        <v>0.1790868317809375</v>
       </c>
       <c r="C48">
-        <v>2.239342450548633</v>
+        <v>1.90325873351797</v>
       </c>
       <c r="D48">
-        <v>0.0310652331369079</v>
+        <v>0.06460229509466252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.9284280941566463</v>
+        <v>0.928420874386406</v>
       </c>
       <c r="B49">
-        <v>0.4168251722048055</v>
+        <v>0.4168235078760085</v>
       </c>
       <c r="C49">
-        <v>2.227380100980242</v>
+        <v>2.227371673726668</v>
       </c>
       <c r="D49">
-        <v>0.03192115998020631</v>
+        <v>0.03192177030196888</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>3.478004333377689</v>
+        <v>3.478022729301358</v>
       </c>
       <c r="B50">
-        <v>0.4928831219570197</v>
+        <v>0.4928859302293177</v>
       </c>
       <c r="C50">
-        <v>7.056448432577851</v>
+        <v>7.056445550562156</v>
       </c>
       <c r="D50">
-        <v>1.710694330398758E-007</v>
+        <v>1.710706480350362E-007</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-2.587532483306775</v>
+        <v>-2.58755496287369</v>
       </c>
       <c r="B51">
-        <v>0.6570317605690133</v>
+        <v>0.6570467340585284</v>
       </c>
       <c r="C51">
-        <v>-3.938215225799554</v>
+        <v>-3.938159690545232</v>
       </c>
       <c r="D51">
-        <v>0.000549131871980468</v>
+        <v>0.0005492112149086896</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.7946194428371678</v>
+        <v>0.6537862713922289</v>
       </c>
       <c r="B52">
-        <v>0.2230621262942741</v>
+        <v>0.2155684371371447</v>
       </c>
       <c r="C52">
-        <v>3.562323447902888</v>
+        <v>3.032847851359102</v>
       </c>
       <c r="D52">
-        <v>0.001447350146568039</v>
+        <v>0.005433532992819289</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.456141003881979</v>
+        <v>1.456112222926568</v>
       </c>
       <c r="B53">
-        <v>0.5142921794495922</v>
+        <v>0.5142803426973391</v>
       </c>
       <c r="C53">
-        <v>2.83134969199877</v>
+        <v>2.831358895207686</v>
       </c>
       <c r="D53">
-        <v>0.008827221177567346</v>
+        <v>0.008827027970445761</v>
       </c>
     </row>
   </sheetData>
